--- a/biology/Médecine/Myalgie/Myalgie.xlsx
+++ b/biology/Médecine/Myalgie/Myalgie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une myalgie est une douleur musculaire. C'est le terme générique englobant toutes les douleurs musculaires du corps charnu du muscle. 
 </t>
@@ -511,7 +523,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les myalgies peuvent être localisées et sont alors souvent de diagnostic facile, ou diffuses et alors de diagnostic plus difficile car les causes sont nombreuses et variées.
 Le dosage des CPK et de la myoglobine peut être utile. 
